--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/INVENTARIO HERRADURA 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/INVENTARIO HERRADURA 2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Capturas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#15  ARCHIVO   2 0 2 2\CENTRAL #12  DICIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$B$2:$E$87</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,7 +5136,7 @@
         <v>60</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" ref="E67:E98" si="2">PRODUCT(C67*D67)</f>
+        <f t="shared" ref="E67:E86" si="2">PRODUCT(C67*D67)</f>
         <v>39</v>
       </c>
     </row>
